--- a/练习.xlsx
+++ b/练习.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="11400" windowHeight="5625" tabRatio="807" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="11400" windowHeight="5625" tabRatio="807"/>
   </bookViews>
   <sheets>
-    <sheet name="flowchart" sheetId="2" r:id="rId1"/>
+    <sheet name="flowchart demo" sheetId="2" r:id="rId1"/>
     <sheet name="猜数字" sheetId="1" r:id="rId2"/>
     <sheet name="字符串操作" sheetId="4" r:id="rId3"/>
-    <sheet name="Data Manipulation" sheetId="3" r:id="rId4"/>
+    <sheet name="nickname" sheetId="3" r:id="rId4"/>
     <sheet name="Read CSV" sheetId="5" r:id="rId5"/>
     <sheet name="数据抓取" sheetId="6" r:id="rId6"/>
     <sheet name="Match.xlsx" sheetId="7" r:id="rId7"/>
@@ -18,14 +18,17 @@
     <sheet name="填工时票" sheetId="9" r:id="rId9"/>
     <sheet name="notepad" sheetId="11" r:id="rId10"/>
     <sheet name="计算器" sheetId="10" r:id="rId11"/>
+    <sheet name="Mail" sheetId="13" r:id="rId12"/>
+    <sheet name="Events" sheetId="14" r:id="rId13"/>
+    <sheet name="用State machine" sheetId="15" r:id="rId14"/>
+    <sheet name="QUEUE" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>A.生成一个0-100的随机数</t>
   </si>
@@ -1361,165 +1364,621 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>打开notepad</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存文件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Input Dialog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入的股票代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>用Recorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制下面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>在股票号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的地方写入用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入的代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>询</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取昨收的数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并用message box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示出来</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>打开</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>浏览器</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>访问http://finance.china.com.cn/stock/quote/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>询</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Input Dialog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取用户输入的股票代码</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>在股票号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码的地方写入用户输入的代码</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取昨收的数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值并用message box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出来</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>用Recorder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>录制下面的过程</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>录制填写工时票的过程</t>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器 Open Browser</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取windows里存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名和密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hub。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制填写工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入一段文字</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>将字体改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【ＭＳ 明朝】</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>式改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斜体</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>字号改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1528,69 +1987,579 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>计算器计算1+2+3…+10</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>打开notepad</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>输入一段文字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>将字体改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为【ＭＳ 明朝】</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>样式改为斜体</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>字号改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存文件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>读取windows里存储的用户名和密码登录hub。</t>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算1+2+3…+10</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>用state machine重写猜数游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并加上异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理（比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入的文字不合法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出提示）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用IE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录HUB</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>写一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>听程序</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>当在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事本中按Ctrl+c的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>并将copy的内容在message box中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示出来。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>并请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将保存的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>将2018年放假安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存到本地</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>将Random Words.csv的内容逐条上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传到QUEUE中</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>写一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>当在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记事本中按组合键(ctrl+shift+N)的时候，到QUEUE中取一件数据放到记事本中</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>如果取不到数据，就往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事本中写入【无数据】</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://finance.china.com.cn/stock/quote/</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1598,7 +2567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1728,7 +2697,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1736,7 +2705,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1767,7 +2800,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1787,7 +2820,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2095,8 +3152,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,47 +3207,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2199,19 +3293,164 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>98</v>
+    <row r="3" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2221,7 +3460,7 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +3516,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,7 +3611,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,7 +3720,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2787,7 +4026,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2900,8 +4139,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3139,74 +4378,125 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>97</v>
-      </c>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
